--- a/Rag/Rag.AIClient/RAG Providers.xlsx
+++ b/Rag/Rag.AIClient/RAG Providers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Sleek\ai-demos-private\Rag\Rag.MoviesClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Sleek\ai-demos-private\Rag\Rag.AIClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43BC82-3C8C-4DD6-B436-C8583972E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE653AF3-3CBF-4C7F-81EB-26FB1782BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BFB79FE4-F1A5-45C0-BC49-53125E2D49B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFB79FE4-F1A5-45C0-BC49-53125E2D49B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
 Server runs native vector query ($search stage).</t>
   </si>
   <si>
-    <t>Client loads from JSON file on local disk (bulk write),
-Client saves individual JSON documents to server,</t>
-  </si>
-  <si>
     <t>Client retrieves data from server.
 Client calls OpenAI to vectorize data (bulk batching).
 Client updates vectors to server (bulk write).
@@ -143,18 +139,22 @@
 Server run native vector query  with VECTOR_DISTANCE function.</t>
   </si>
   <si>
-    <t>Server calls OpenAI to vectorize data.
-Server stores vectors varbinar(8000) type.</t>
-  </si>
-  <si>
     <t>Client sends new/updated data to server.
 Server calls OpenAI to vectorize new/updated data.
 Server updates vectors to columnstore index.</t>
   </si>
   <si>
+    <t>Client loads from JSON file on local disk (bulk write),
+Client saves individual JSON documents to server</t>
+  </si>
+  <si>
+    <t>Server calls OpenAI to vectorize data.
+Server stores vectors in native vector data type.</t>
+  </si>
+  <si>
     <t>Client sends new/updated data to server.
 Server calls OpenAI to vectorize new/updated data.
-Server updates vectors to varbinary(8000) type.</t>
+Server updates vectors to native vector data type.</t>
   </si>
 </sst>
 </file>
@@ -569,18 +569,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,30 +614,30 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -657,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -677,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -685,10 +685,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
